--- a/phan_2/data/lookup_cap.xlsx
+++ b/phan_2/data/lookup_cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0643071-DD0E-4EE3-A1E3-3CB409FEDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AC5707-A15A-4799-B4DD-A19BA4D274B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30B8D73F-4353-4CD8-BC37-6C13260079F0}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
